--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SkillLearn.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SkillLearn.xlsx
@@ -1,37 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19319DD-E263-4C72-A9F5-D5A32C187C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9AF5DE-2908-424C-843F-89BD16459C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="防御塔" sheetId="2" r:id="rId2"/>
+    <sheet name="玩家技能" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
   <si>
     <t>##var</t>
   </si>
@@ -168,10 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_TowerGolem1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NormalAttack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -186,6 +173,514 @@
   <si>
     <t>技能等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_XBow2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_XBow3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Cannon1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Cannon2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Cannon3</t>
+  </si>
+  <si>
+    <t>PlayerSkill_IceBind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLearn_Test_PlayerSkill1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLearn_Test_PlayerSkill2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Box</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_BoostBox</t>
+  </si>
+  <si>
+    <t>强化地块普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_XBow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭塔普通攻击1</t>
+  </si>
+  <si>
+    <t>弩箭塔普通攻击2</t>
+  </si>
+  <si>
+    <t>弩箭塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Cannon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮普通攻击1</t>
+  </si>
+  <si>
+    <t>加农炮普通攻击2</t>
+  </si>
+  <si>
+    <t>加农炮普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Flame1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Flame2</t>
+  </si>
+  <si>
+    <t>火焰塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Flame3</t>
+  </si>
+  <si>
+    <t>火焰塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_AcidMist1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸雾塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_AcidMist2</t>
+  </si>
+  <si>
+    <t>酸雾塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_AcidMist3</t>
+  </si>
+  <si>
+    <t>酸雾塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Draco1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Draco2</t>
+  </si>
+  <si>
+    <t>龙击炮普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Draco3</t>
+  </si>
+  <si>
+    <t>龙击炮普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Thunder1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Thunder2</t>
+  </si>
+  <si>
+    <t>雷电塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Thunder3</t>
+  </si>
+  <si>
+    <t>雷电塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_IceTower1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_IceTower2</t>
+  </si>
+  <si>
+    <t>冰魔塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_IceTower3</t>
+  </si>
+  <si>
+    <t>冰魔塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_SpeedTower1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_SpeedTower2</t>
+  </si>
+  <si>
+    <t>时光塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_SpeedTower3</t>
+  </si>
+  <si>
+    <t>时光塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_MystOrb1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术天球普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_MystOrb2</t>
+  </si>
+  <si>
+    <t>奥术天球普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_MystOrb3</t>
+  </si>
+  <si>
+    <t>奥术天球普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>炼金塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>炼金塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Scorpio1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蝎塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Scorpio2</t>
+  </si>
+  <si>
+    <t>毒蝎塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Scorpio3</t>
+  </si>
+  <si>
+    <t>毒蝎塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Crystal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Crystal2</t>
+  </si>
+  <si>
+    <t>水晶普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Crystal3</t>
+  </si>
+  <si>
+    <t>水晶普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Goblin1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Goblin2</t>
+  </si>
+  <si>
+    <t>哥布林普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Goblin3</t>
+  </si>
+  <si>
+    <t>哥布林普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Rocket1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭塔普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Rocket2</t>
+  </si>
+  <si>
+    <t>火箭塔普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Rocket3</t>
+  </si>
+  <si>
+    <t>火箭塔普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Bomb1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Bomb2</t>
+  </si>
+  <si>
+    <t>炸弹普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Bomb3</t>
+  </si>
+  <si>
+    <t>炸弹普通攻击3</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Golem1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔像普通攻击1</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Golem2</t>
+  </si>
+  <si>
+    <t>魔像普通攻击2</t>
+  </si>
+  <si>
+    <t>NormalAttack_Tower_Golem3</t>
+  </si>
+  <si>
+    <t>魔像普通攻击3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Box</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_BoostBox</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_XBow1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_XBow2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_XBow3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Cannon1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Cannon2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Cannon3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Flame1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Flame2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Flame3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_AcidMist1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_AcidMist2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_AcidMist3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Draco1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Draco2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Draco3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Thunder1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Thunder2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Thunder3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_IceTower1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_IceTower2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_IceTower3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_SpeedTower1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_SpeedTower2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_SpeedTower3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_MystOrb1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_MystOrb2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_MystOrb3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Alchemy1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Scorpio1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Scorpio2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Scorpio3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Crystal1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Crystal2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Crystal3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Goblin1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Goblin2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Goblin3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Rocket1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Rocket2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Rocket3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Bomb1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Bomb2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Bomb3</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Golem1</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Golem2</t>
+  </si>
+  <si>
+    <t>SkillLearn_NormalAttack_Tower_Golem3</t>
   </si>
 </sst>
 </file>
@@ -260,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,17 +778,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -304,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -312,7 +796,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -590,23 +1079,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="9" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
@@ -648,7 +1137,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,7 +1167,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>15</v>
@@ -720,7 +1209,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -752,7 +1241,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -771,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>17</v>
@@ -794,8 +1283,8 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6">
@@ -805,22 +1294,21 @@
         <f>B6&amp;"_"&amp;C6</f>
         <v>SkillLearn_1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -830,16 +1318,105 @@
         <f>B7&amp;"_"&amp;C7</f>
         <v>SkillLearn_2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>SkillLearn_Test1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="str">
+        <f>B9&amp;"_"&amp;C9</f>
+        <v>SkillLearn_Test2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="str">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>SkillLearn_Test3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -847,4 +1424,1266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D478FD40-5252-4592-806D-4316E59643A6}">
+  <dimension ref="A1:Z55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D45" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D46" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D48" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D51" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D53" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D54" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D55" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B06942D-F2B2-4D1E-9D6E-28FF54F40DA3}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>